--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>28.84519724287</v>
+        <v>0.006469</v>
       </c>
       <c r="N2">
-        <v>28.84519724287</v>
+        <v>0.019407</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0002012817583373685</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0002012817583373685</v>
       </c>
       <c r="Q2">
-        <v>4086.972835521586</v>
+        <v>0.9705792009826666</v>
       </c>
       <c r="R2">
-        <v>4086.972835521586</v>
+        <v>8.735212808844</v>
       </c>
       <c r="S2">
-        <v>0.4220481671659174</v>
+        <v>8.358239839272316E-05</v>
       </c>
       <c r="T2">
-        <v>0.4220481671659174</v>
+        <v>8.358239839272315E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>28.84519724287</v>
+        <v>0.1055696666666667</v>
       </c>
       <c r="N3">
-        <v>28.84519724287</v>
+        <v>0.316709</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00328478097600194</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.00328478097600194</v>
       </c>
       <c r="Q3">
-        <v>1959.214469263365</v>
+        <v>15.83919040366978</v>
       </c>
       <c r="R3">
-        <v>1959.214469263365</v>
+        <v>142.552713633028</v>
       </c>
       <c r="S3">
-        <v>0.2023215981889492</v>
+        <v>0.001364007719511566</v>
       </c>
       <c r="T3">
-        <v>0.2023215981889492</v>
+        <v>0.001364007719511566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.2433905747086</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>91.2433905747086</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.2717910776365635</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.2717910776365635</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.84519724287</v>
+        <v>31.453153</v>
       </c>
       <c r="N4">
-        <v>28.84519724287</v>
+        <v>94.359459</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9786591345021298</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9786591345021296</v>
       </c>
       <c r="Q4">
-        <v>2631.933598235695</v>
+        <v>4719.087356179559</v>
       </c>
       <c r="R4">
-        <v>2631.933598235695</v>
+        <v>42471.78620561603</v>
       </c>
       <c r="S4">
-        <v>0.2717910776365635</v>
+        <v>0.4063889263801632</v>
       </c>
       <c r="T4">
-        <v>0.2717910776365635</v>
+        <v>0.4063889263801631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,799 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>150.0354306666667</v>
+      </c>
+      <c r="H5">
+        <v>450.106292</v>
+      </c>
+      <c r="I5">
+        <v>0.4152507364956075</v>
+      </c>
+      <c r="J5">
+        <v>0.4152507364956075</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.573836</v>
+      </c>
+      <c r="N5">
+        <v>1.721508</v>
+      </c>
+      <c r="O5">
+        <v>0.01785480276353103</v>
+      </c>
+      <c r="P5">
+        <v>0.01785480276353102</v>
+      </c>
+      <c r="Q5">
+        <v>86.09573139203732</v>
+      </c>
+      <c r="R5">
+        <v>774.861582528336</v>
+      </c>
+      <c r="S5">
+        <v>0.007414219997540067</v>
+      </c>
+      <c r="T5">
+        <v>0.007414219997540064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>68.382243</v>
+      </c>
+      <c r="H6">
+        <v>205.146729</v>
+      </c>
+      <c r="I6">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J6">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.006469</v>
+      </c>
+      <c r="N6">
+        <v>0.019407</v>
+      </c>
+      <c r="O6">
+        <v>0.0002012817583373685</v>
+      </c>
+      <c r="P6">
+        <v>0.0002012817583373685</v>
+      </c>
+      <c r="Q6">
+        <v>0.442364729967</v>
+      </c>
+      <c r="R6">
+        <v>3.981282569703</v>
+      </c>
+      <c r="S6">
+        <v>3.809468104978638E-05</v>
+      </c>
+      <c r="T6">
+        <v>3.809468104978637E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>68.382243</v>
+      </c>
+      <c r="H7">
+        <v>205.146729</v>
+      </c>
+      <c r="I7">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J7">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1055696666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.316709</v>
+      </c>
+      <c r="O7">
+        <v>0.00328478097600194</v>
+      </c>
+      <c r="P7">
+        <v>0.00328478097600194</v>
+      </c>
+      <c r="Q7">
+        <v>7.219090599429001</v>
+      </c>
+      <c r="R7">
+        <v>64.971815394861</v>
+      </c>
+      <c r="S7">
+        <v>0.0006216792054720872</v>
+      </c>
+      <c r="T7">
+        <v>0.0006216792054720869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="H5">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="I5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="J5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>28.84519724287</v>
-      </c>
-      <c r="N5">
-        <v>28.84519724287</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1005.543553967499</v>
-      </c>
-      <c r="R5">
-        <v>1005.543553967499</v>
-      </c>
-      <c r="S5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="T5">
-        <v>0.1038391570085698</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>68.382243</v>
+      </c>
+      <c r="H8">
+        <v>205.146729</v>
+      </c>
+      <c r="I8">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J8">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.453153</v>
+      </c>
+      <c r="N8">
+        <v>94.359459</v>
+      </c>
+      <c r="O8">
+        <v>0.9786591345021298</v>
+      </c>
+      <c r="P8">
+        <v>0.9786591345021296</v>
+      </c>
+      <c r="Q8">
+        <v>2150.837151562179</v>
+      </c>
+      <c r="R8">
+        <v>19357.53436405961</v>
+      </c>
+      <c r="S8">
+        <v>0.1852214919686399</v>
+      </c>
+      <c r="T8">
+        <v>0.1852214919686399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>68.382243</v>
+      </c>
+      <c r="H9">
+        <v>205.146729</v>
+      </c>
+      <c r="I9">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J9">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.573836</v>
+      </c>
+      <c r="N9">
+        <v>1.721508</v>
+      </c>
+      <c r="O9">
+        <v>0.01785480276353103</v>
+      </c>
+      <c r="P9">
+        <v>0.01785480276353102</v>
+      </c>
+      <c r="Q9">
+        <v>39.240192794148</v>
+      </c>
+      <c r="R9">
+        <v>353.161735147332</v>
+      </c>
+      <c r="S9">
+        <v>0.003379208439462857</v>
+      </c>
+      <c r="T9">
+        <v>0.003379208439462855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>104.737245</v>
+      </c>
+      <c r="H10">
+        <v>314.211735</v>
+      </c>
+      <c r="I10">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J10">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006469</v>
+      </c>
+      <c r="N10">
+        <v>0.019407</v>
+      </c>
+      <c r="O10">
+        <v>0.0002012817583373685</v>
+      </c>
+      <c r="P10">
+        <v>0.0002012817583373685</v>
+      </c>
+      <c r="Q10">
+        <v>0.6775452379049999</v>
+      </c>
+      <c r="R10">
+        <v>6.097907141145</v>
+      </c>
+      <c r="S10">
+        <v>5.834748565220846E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.834748565220845E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>104.737245</v>
+      </c>
+      <c r="H11">
+        <v>314.211735</v>
+      </c>
+      <c r="I11">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J11">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1055696666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.316709</v>
+      </c>
+      <c r="O11">
+        <v>0.00328478097600194</v>
+      </c>
+      <c r="P11">
+        <v>0.00328478097600194</v>
+      </c>
+      <c r="Q11">
+        <v>11.057076042235</v>
+      </c>
+      <c r="R11">
+        <v>99.513684380115</v>
+      </c>
+      <c r="S11">
+        <v>0.0009521911595519809</v>
+      </c>
+      <c r="T11">
+        <v>0.0009521911595519806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>104.737245</v>
+      </c>
+      <c r="H12">
+        <v>314.211735</v>
+      </c>
+      <c r="I12">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J12">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>31.453153</v>
+      </c>
+      <c r="N12">
+        <v>94.359459</v>
+      </c>
+      <c r="O12">
+        <v>0.9786591345021298</v>
+      </c>
+      <c r="P12">
+        <v>0.9786591345021296</v>
+      </c>
+      <c r="Q12">
+        <v>3294.316591783484</v>
+      </c>
+      <c r="R12">
+        <v>29648.84932605136</v>
+      </c>
+      <c r="S12">
+        <v>0.2836933673495468</v>
+      </c>
+      <c r="T12">
+        <v>0.2836933673495466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>104.737245</v>
+      </c>
+      <c r="H13">
+        <v>314.211735</v>
+      </c>
+      <c r="I13">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J13">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.573836</v>
+      </c>
+      <c r="N13">
+        <v>1.721508</v>
+      </c>
+      <c r="O13">
+        <v>0.01785480276353103</v>
+      </c>
+      <c r="P13">
+        <v>0.01785480276353102</v>
+      </c>
+      <c r="Q13">
+        <v>60.10200172182</v>
+      </c>
+      <c r="R13">
+        <v>540.91801549638</v>
+      </c>
+      <c r="S13">
+        <v>0.005175743975378065</v>
+      </c>
+      <c r="T13">
+        <v>0.005175743975378063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.15794</v>
+      </c>
+      <c r="H14">
+        <v>114.47382</v>
+      </c>
+      <c r="I14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006469</v>
+      </c>
+      <c r="N14">
+        <v>0.019407</v>
+      </c>
+      <c r="O14">
+        <v>0.0002012817583373685</v>
+      </c>
+      <c r="P14">
+        <v>0.0002012817583373685</v>
+      </c>
+      <c r="Q14">
+        <v>0.24684371386</v>
+      </c>
+      <c r="R14">
+        <v>2.22159342474</v>
+      </c>
+      <c r="S14">
+        <v>2.125719324265052E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.125719324265052E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.15794</v>
+      </c>
+      <c r="H15">
+        <v>114.47382</v>
+      </c>
+      <c r="I15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1055696666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.316709</v>
+      </c>
+      <c r="O15">
+        <v>0.00328478097600194</v>
+      </c>
+      <c r="P15">
+        <v>0.00328478097600194</v>
+      </c>
+      <c r="Q15">
+        <v>4.028321006486667</v>
+      </c>
+      <c r="R15">
+        <v>36.25488905838</v>
+      </c>
+      <c r="S15">
+        <v>0.0003469028914663062</v>
+      </c>
+      <c r="T15">
+        <v>0.0003469028914663061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.15794</v>
+      </c>
+      <c r="H16">
+        <v>114.47382</v>
+      </c>
+      <c r="I16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>31.453153</v>
+      </c>
+      <c r="N16">
+        <v>94.359459</v>
+      </c>
+      <c r="O16">
+        <v>0.9786591345021298</v>
+      </c>
+      <c r="P16">
+        <v>0.9786591345021296</v>
+      </c>
+      <c r="Q16">
+        <v>1200.18752498482</v>
+      </c>
+      <c r="R16">
+        <v>10801.68772486338</v>
+      </c>
+      <c r="S16">
+        <v>0.10335534880378</v>
+      </c>
+      <c r="T16">
+        <v>0.10335534880378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.15794</v>
+      </c>
+      <c r="H17">
+        <v>114.47382</v>
+      </c>
+      <c r="I17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.573836</v>
+      </c>
+      <c r="N17">
+        <v>1.721508</v>
+      </c>
+      <c r="O17">
+        <v>0.01785480276353103</v>
+      </c>
+      <c r="P17">
+        <v>0.01785480276353102</v>
+      </c>
+      <c r="Q17">
+        <v>21.89639965784</v>
+      </c>
+      <c r="R17">
+        <v>197.06759692056</v>
+      </c>
+      <c r="S17">
+        <v>0.00188563035115004</v>
+      </c>
+      <c r="T17">
+        <v>0.001885630351150039</v>
       </c>
     </row>
   </sheetData>
